--- a/data/trans_orig/P04D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>18498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11423</v>
+        <v>11534</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28294</v>
+        <v>28326</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04073064611243651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02515230761271284</v>
+        <v>0.02539805671000002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06230244038507354</v>
+        <v>0.06237093590970663</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -764,19 +764,19 @@
         <v>19778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11469</v>
+        <v>12306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30773</v>
+        <v>30288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04597027747413873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02665890888047391</v>
+        <v>0.02860442954499524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07152642377626506</v>
+        <v>0.0704002956721724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -785,19 +785,19 @@
         <v>38275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27876</v>
+        <v>27250</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53863</v>
+        <v>53183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04327961361661009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0315205220964497</v>
+        <v>0.03081281204693309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06090549354778808</v>
+        <v>0.06013621936830316</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>276928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255778</v>
+        <v>257478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296436</v>
+        <v>299975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6097768387646872</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.563205889388677</v>
+        <v>0.5669506049255171</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.652733039511621</v>
+        <v>0.6605250960429542</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -835,19 +835,19 @@
         <v>274725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256883</v>
+        <v>253678</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294351</v>
+        <v>293760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.638554859357904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5970824191497114</v>
+        <v>0.5896343785464475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6841710113050226</v>
+        <v>0.6827967702273376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>539</v>
@@ -856,19 +856,19 @@
         <v>551653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>524187</v>
+        <v>521737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578851</v>
+        <v>580331</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6237767243029547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5927197396221857</v>
+        <v>0.5899496880876163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6545301614496999</v>
+        <v>0.6562041004449529</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>158721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>139296</v>
+        <v>136443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180328</v>
+        <v>176920</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3494925151228762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3067218213486708</v>
+        <v>0.3004391590899218</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3970710427459785</v>
+        <v>0.3895653216322312</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -906,19 +906,19 @@
         <v>135727</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116174</v>
+        <v>115996</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>153532</v>
+        <v>155364</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3154748631679573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2700283257381866</v>
+        <v>0.2696145413773305</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3568595627951728</v>
+        <v>0.3611194726623543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>291</v>
@@ -927,19 +927,19 @@
         <v>294447</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>267472</v>
+        <v>268781</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321062</v>
+        <v>324132</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3329436620804352</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3024416119259168</v>
+        <v>0.3039219717616136</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3630376598478368</v>
+        <v>0.3665093952103905</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>36333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25317</v>
+        <v>25393</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51096</v>
+        <v>50305</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05287925836454678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03684736458774391</v>
+        <v>0.03695689788123509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07436621331495717</v>
+        <v>0.07321513571143383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1052,19 +1052,19 @@
         <v>18543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11667</v>
+        <v>11264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29187</v>
+        <v>29107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03038629480551786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01911873842574647</v>
+        <v>0.01845707251196594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04782809152912153</v>
+        <v>0.04769632483299411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -1073,19 +1073,19 @@
         <v>54876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41902</v>
+        <v>41318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73549</v>
+        <v>73021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04229881934081867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03229806170058346</v>
+        <v>0.03184827238313698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05669182690575421</v>
+        <v>0.05628494021194541</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>425236</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>400869</v>
+        <v>400300</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>449941</v>
+        <v>450703</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6188972106857159</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5834322271428052</v>
+        <v>0.5826043790966865</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6548536021180652</v>
+        <v>0.6559623497856286</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>362</v>
@@ -1123,19 +1123,19 @@
         <v>387458</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>363259</v>
+        <v>363332</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>411372</v>
+        <v>412717</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6349109318002776</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.595257188432004</v>
+        <v>0.5953773343457714</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6740977646665366</v>
+        <v>0.6763020521588358</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>775</v>
@@ -1144,19 +1144,19 @@
         <v>812694</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>777919</v>
+        <v>776377</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>846324</v>
+        <v>845828</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6264298863756472</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5996250267438894</v>
+        <v>0.5984363892695392</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6523526204315928</v>
+        <v>0.6519701638785041</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>225518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201506</v>
+        <v>202658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250100</v>
+        <v>251570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3282235309497373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2932753570475122</v>
+        <v>0.294952241686427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3640007100749694</v>
+        <v>0.3661400027683153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -1194,19 +1194,19 @@
         <v>204254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182556</v>
+        <v>179313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>228964</v>
+        <v>227674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3347027733942046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2991468418681071</v>
+        <v>0.2938333325541008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3751937705000613</v>
+        <v>0.3730794273082162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -1215,19 +1215,19 @@
         <v>429772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>394735</v>
+        <v>394845</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463339</v>
+        <v>463690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3312712942835341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.30426414376795</v>
+        <v>0.3043493328127234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3571448838049247</v>
+        <v>0.3574156327703058</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>28468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18825</v>
+        <v>19012</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42340</v>
+        <v>41376</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04175049572442417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02760856928995491</v>
+        <v>0.0278818780165752</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06209402124806639</v>
+        <v>0.06068139854546928</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -1340,19 +1340,19 @@
         <v>29618</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19674</v>
+        <v>18698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42647</v>
+        <v>41379</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04166591804431208</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02767680890910571</v>
+        <v>0.02630427256422732</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05999383121481926</v>
+        <v>0.05821016754408669</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -1361,19 +1361,19 @@
         <v>58086</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43646</v>
+        <v>43849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75428</v>
+        <v>76033</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0417073267123113</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03133918778834415</v>
+        <v>0.0314845116529912</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05415889671453669</v>
+        <v>0.05459313295146066</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>423949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>398528</v>
+        <v>398641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>449422</v>
+        <v>450261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6217512148330114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5844698508145838</v>
+        <v>0.5846349956759319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6591096488946204</v>
+        <v>0.6603393583483826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>397</v>
@@ -1411,19 +1411,19 @@
         <v>427590</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>401811</v>
+        <v>398524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>453565</v>
+        <v>453735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6015191914646777</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5652541765949679</v>
+        <v>0.5606301924956966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6380606509826379</v>
+        <v>0.6382998037160672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>801</v>
@@ -1432,19 +1432,19 @@
         <v>851538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>813084</v>
+        <v>813808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>883401</v>
+        <v>890330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6114246551461285</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5838137149141233</v>
+        <v>0.584333421952026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6343027131478464</v>
+        <v>0.6392779958924728</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>229446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>203805</v>
+        <v>205448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>252650</v>
+        <v>254542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3364982894425644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.298893653192997</v>
+        <v>0.3013043790792796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3705288348210839</v>
+        <v>0.373303087043359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -1482,19 +1482,19 @@
         <v>253642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>228439</v>
+        <v>229102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>279923</v>
+        <v>279946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3568148904910102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3213605780359539</v>
+        <v>0.3222924112827357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3937861669790502</v>
+        <v>0.3938185990351808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>465</v>
@@ -1503,19 +1503,19 @@
         <v>483087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447677</v>
+        <v>444545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>519741</v>
+        <v>517491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3468680181415602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3214425743286111</v>
+        <v>0.3191938453155391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3731860722115939</v>
+        <v>0.3715706488868986</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>23816</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15156</v>
+        <v>15340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35544</v>
+        <v>36322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03874882436760521</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02465890647218906</v>
+        <v>0.02495825141208739</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05783043263021889</v>
+        <v>0.05909616049571004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1628,19 +1628,19 @@
         <v>27483</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17556</v>
+        <v>17681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40648</v>
+        <v>39549</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04460105030004662</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02849133982597978</v>
+        <v>0.02869333410827519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06596628992195459</v>
+        <v>0.06418182922249616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1649,19 +1649,19 @@
         <v>51299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38311</v>
+        <v>37352</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68002</v>
+        <v>68678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04167869934464713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03112610451946412</v>
+        <v>0.03034705789641693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05524942749006136</v>
+        <v>0.05579864249505589</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>375661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>349449</v>
+        <v>348905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>401172</v>
+        <v>400046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6112113035512412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5685637886105042</v>
+        <v>0.5676791733529327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6527192053722909</v>
+        <v>0.6508865721167197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>343</v>
@@ -1699,19 +1699,19 @@
         <v>393501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>369029</v>
+        <v>369145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>417492</v>
+        <v>417454</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6385942124458083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5988792992709532</v>
+        <v>0.5990673194852123</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6775283275377046</v>
+        <v>0.677466958108393</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>680</v>
@@ -1720,19 +1720,19 @@
         <v>769162</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>732039</v>
+        <v>731321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804404</v>
+        <v>804687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6249203606681357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5947589112696769</v>
+        <v>0.5941758619090028</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.653553284349771</v>
+        <v>0.653783022536704</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>215140</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>190621</v>
+        <v>192375</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>242940</v>
+        <v>241759</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3500398720811536</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3101467751481174</v>
+        <v>0.3129991108992327</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3952697517159834</v>
+        <v>0.3933497539162762</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -1770,19 +1770,19 @@
         <v>195215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>171533</v>
+        <v>171799</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218973</v>
+        <v>220189</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3168047372541451</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2783726687581263</v>
+        <v>0.2788039596011599</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.355360670333165</v>
+        <v>0.3573336181009562</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>362</v>
@@ -1791,19 +1791,19 @@
         <v>410355</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>375218</v>
+        <v>374370</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>443780</v>
+        <v>448610</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3334009399872171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3048532827746285</v>
+        <v>0.3041642900852028</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3605573566405384</v>
+        <v>0.3644813897622927</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>20687</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12597</v>
+        <v>13342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31674</v>
+        <v>31554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04817430447980404</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02933491415929338</v>
+        <v>0.03106818665388206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0737582815252813</v>
+        <v>0.07347959640616138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1916,19 +1916,19 @@
         <v>21050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32189</v>
+        <v>31697</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04700725162757981</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02772373225189681</v>
+        <v>0.02818355445844975</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07188267521195726</v>
+        <v>0.07078432926386416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1937,19 +1937,19 @@
         <v>41737</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29414</v>
+        <v>30373</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56365</v>
+        <v>57690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04757855790515222</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03353036708309304</v>
+        <v>0.03462340015649832</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06425354979412168</v>
+        <v>0.06576333634269745</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>267722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>247681</v>
+        <v>247103</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>289708</v>
+        <v>290542</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6234365796139969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5767678237891083</v>
+        <v>0.5754219244157184</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6746348068072098</v>
+        <v>0.6765775147419893</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>260</v>
@@ -1987,19 +1987,19 @@
         <v>288307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>265675</v>
+        <v>267360</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>309815</v>
+        <v>309797</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6438295287130709</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5932900379238369</v>
+        <v>0.5970512292817787</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6918607177198575</v>
+        <v>0.6918190312541509</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>503</v>
@@ -2008,19 +2008,19 @@
         <v>556029</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>523278</v>
+        <v>525015</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>585946</v>
+        <v>582095</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6338465876523371</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5965127825467321</v>
+        <v>0.5984928218984872</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.667951216618322</v>
+        <v>0.6635616057682397</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>141020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119941</v>
+        <v>120510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160784</v>
+        <v>161516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3283891159061991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2793037335874621</v>
+        <v>0.2806292915155643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3744143254907935</v>
+        <v>0.3761189498365185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2058,19 +2058,19 @@
         <v>138443</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117949</v>
+        <v>118447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>160685</v>
+        <v>160369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3091632196593493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2633962220913049</v>
+        <v>0.2645090535657856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3588310201129747</v>
+        <v>0.3581262831004423</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -2079,19 +2079,19 @@
         <v>279463</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>252510</v>
+        <v>253892</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>312647</v>
+        <v>308731</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3185748544425106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2878490479392334</v>
+        <v>0.2894249992947774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3564030171954954</v>
+        <v>0.3519389155750687</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>8057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3943</v>
+        <v>3822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15867</v>
+        <v>15223</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02600726299004796</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01272934122087855</v>
+        <v>0.01233814744796332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0512200547204409</v>
+        <v>0.04913937699068301</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2204,19 +2204,19 @@
         <v>16813</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9821</v>
+        <v>9937</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26644</v>
+        <v>24996</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04749572474381737</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02774394471363888</v>
+        <v>0.02807159329964876</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0752665177429086</v>
+        <v>0.07061237750148301</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2225,19 +2225,19 @@
         <v>24870</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16897</v>
+        <v>15978</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35708</v>
+        <v>35954</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0374670907916735</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02545537392438663</v>
+        <v>0.0240704130205714</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05379486572801219</v>
+        <v>0.05416503238984001</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>209623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189538</v>
+        <v>189671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>225135</v>
+        <v>226326</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6766715208637983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6118358903447446</v>
+        <v>0.6122656498373708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7267424352245162</v>
+        <v>0.7305879179900595</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -2275,19 +2275,19 @@
         <v>230487</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>212791</v>
+        <v>211535</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>248366</v>
+        <v>248526</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6511006492948862</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6011111277749493</v>
+        <v>0.5975620041488598</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7016064997126581</v>
+        <v>0.7020575241857391</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>417</v>
@@ -2296,19 +2296,19 @@
         <v>440110</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>413961</v>
+        <v>414684</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>465442</v>
+        <v>464455</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6630345379901493</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6236405244952548</v>
+        <v>0.6247286396181913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7011967906137858</v>
+        <v>0.6997106440271905</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>92106</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76960</v>
+        <v>75464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111962</v>
+        <v>111813</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2973212161461537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2484294588555296</v>
+        <v>0.2435989021474194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3614171843890859</v>
+        <v>0.3609376297752634</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -2346,19 +2346,19 @@
         <v>106696</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88801</v>
+        <v>89668</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>124811</v>
+        <v>126143</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3014036259612964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2508530416950792</v>
+        <v>0.2533013866876518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.352576164254305</v>
+        <v>0.3563413101896201</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>184</v>
@@ -2367,19 +2367,19 @@
         <v>198802</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>175416</v>
+        <v>175573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>226151</v>
+        <v>225172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2994983712181771</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2642677457657136</v>
+        <v>0.2645037075462384</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3407012274542463</v>
+        <v>0.3392251995729834</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>6258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2815</v>
+        <v>2304</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13821</v>
+        <v>13812</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02504560232702026</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01126677297274881</v>
+        <v>0.009223202230956688</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05531778901304297</v>
+        <v>0.05527930115945562</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2492,19 +2492,19 @@
         <v>26290</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17563</v>
+        <v>16638</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37928</v>
+        <v>37963</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06758641093628087</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0451502816843369</v>
+        <v>0.04277418262115999</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09750748262664703</v>
+        <v>0.09759541892778079</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>30</v>
@@ -2513,19 +2513,19 @@
         <v>32547</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22168</v>
+        <v>21031</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44992</v>
+        <v>44299</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05094840111377086</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03470089380615931</v>
+        <v>0.03292159474559452</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.070428339762314</v>
+        <v>0.06934383586874832</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>177457</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>159266</v>
+        <v>161661</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>192410</v>
+        <v>192447</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7102503654443313</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6374432733412977</v>
+        <v>0.6470297187352214</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7701003647451501</v>
+        <v>0.7702488025198504</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>263</v>
@@ -2563,19 +2563,19 @@
         <v>293119</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>273799</v>
+        <v>273750</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>309356</v>
+        <v>311445</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7535592619387763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7038909427359832</v>
+        <v>0.7037653237951946</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7953032825046754</v>
+        <v>0.8006736441151135</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>423</v>
@@ -2584,19 +2584,19 @@
         <v>470575</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>444171</v>
+        <v>446888</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>492407</v>
+        <v>492554</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7366208475354407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.695288312558453</v>
+        <v>0.6995417169342055</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7707956495197862</v>
+        <v>0.7710253520740677</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>66137</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>51997</v>
+        <v>52391</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82531</v>
+        <v>82159</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2647040322286485</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2081118914298981</v>
+        <v>0.209689631427249</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3303196570474582</v>
+        <v>0.3288316219178997</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>63</v>
@@ -2634,19 +2634,19 @@
         <v>69571</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54628</v>
+        <v>53443</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>85897</v>
+        <v>86856</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1788543271249428</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1404398322370402</v>
+        <v>0.1373928519320391</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2208273808841042</v>
+        <v>0.2232913914355868</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>119</v>
@@ -2655,19 +2655,19 @@
         <v>135707</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>116045</v>
+        <v>114143</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159388</v>
+        <v>158595</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2124307513507885</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1816516799253524</v>
+        <v>0.1786750230529226</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2494995941893651</v>
+        <v>0.2482592701933845</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>142116</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>118076</v>
+        <v>119009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>169699</v>
+        <v>169086</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04147215668289891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03445685488922205</v>
+        <v>0.03472899749775311</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04952132051060241</v>
+        <v>0.0493425360695507</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>146</v>
@@ -2780,19 +2780,19 @@
         <v>159575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>133250</v>
+        <v>137064</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>186663</v>
+        <v>187281</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04484583965536622</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03744753502678336</v>
+        <v>0.03851932523861787</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05245832273114692</v>
+        <v>0.05263215721308617</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>277</v>
@@ -2801,19 +2801,19 @@
         <v>301691</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>266052</v>
+        <v>267703</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>335590</v>
+        <v>338684</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04319076164117992</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03808863956928431</v>
+        <v>0.03832497001277393</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04804381331245321</v>
+        <v>0.04848678403841673</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>2156576</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2097902</v>
+        <v>2097269</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2212810</v>
+        <v>2216805</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6293302895331054</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.612208012149543</v>
+        <v>0.6120235505871185</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6457405224864627</v>
+        <v>0.6469061778886458</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2118</v>
@@ -2851,19 +2851,19 @@
         <v>2295187</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2239882</v>
+        <v>2240537</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2355447</v>
+        <v>2353299</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6450217478042946</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6294792735502627</v>
+        <v>0.6296635307655051</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6619567657388628</v>
+        <v>0.6613532997828454</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4138</v>
@@ -2872,19 +2872,19 @@
         <v>4451763</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4365032</v>
+        <v>4368369</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4534450</v>
+        <v>4527074</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6373237548965099</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6249072100728844</v>
+        <v>0.6253849541912718</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6491614770110109</v>
+        <v>0.6481055319882401</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>1128087</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1069904</v>
+        <v>1074843</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1183869</v>
+        <v>1187782</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3291975537839956</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3122184677541782</v>
+        <v>0.3136599328582205</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3454758539921698</v>
+        <v>0.3466174853410441</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1034</v>
@@ -2922,19 +2922,19 @@
         <v>1103547</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1047675</v>
+        <v>1048697</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1156879</v>
+        <v>1155965</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3101324125403392</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2944304943658164</v>
+        <v>0.2947178460237233</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3251204114821131</v>
+        <v>0.3248635892367646</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2092</v>
@@ -2943,19 +2943,19 @@
         <v>2231634</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2150068</v>
+        <v>2157199</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2313783</v>
+        <v>2309596</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3194854834623101</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3078082258041611</v>
+        <v>0.3088291087769775</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3312461390284757</v>
+        <v>0.3306466277785375</v>
       </c>
     </row>
     <row r="35">
@@ -3290,19 +3290,19 @@
         <v>66337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51412</v>
+        <v>52354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82528</v>
+        <v>81479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1581469602308936</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1225665083564989</v>
+        <v>0.1248117230745248</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1967479345461414</v>
+        <v>0.1942453771714379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -3311,19 +3311,19 @@
         <v>55936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43439</v>
+        <v>42272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70767</v>
+        <v>70057</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1413411945201716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1097618082894794</v>
+        <v>0.1068142908559161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1788150431667622</v>
+        <v>0.1770218432056517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -3332,19 +3332,19 @@
         <v>122273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102631</v>
+        <v>102617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143622</v>
+        <v>142690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1499884482174063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1258939338845202</v>
+        <v>0.125876629399034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1761757806755671</v>
+        <v>0.1750324802855017</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>216491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195746</v>
+        <v>195066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237534</v>
+        <v>238106</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5161141107149784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4666588055219599</v>
+        <v>0.4650364550465126</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5662808951602937</v>
+        <v>0.5676449524946924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>210</v>
@@ -3382,19 +3382,19 @@
         <v>204188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182962</v>
+        <v>183884</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221846</v>
+        <v>223313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5159444311892001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4623107336042103</v>
+        <v>0.4646415180136446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5605636868579377</v>
+        <v>0.5642695653958505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>417</v>
@@ -3403,19 +3403,19 @@
         <v>420678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>392592</v>
+        <v>393610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>448311</v>
+        <v>446828</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5160317382439268</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4815787597401711</v>
+        <v>0.4828273910946611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5499274460971239</v>
+        <v>0.5481082783236779</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>136635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>118684</v>
+        <v>118532</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158006</v>
+        <v>157815</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.325738929054128</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2829437784354012</v>
+        <v>0.2825801969526925</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.376685247503436</v>
+        <v>0.3762316185677791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>138</v>
@@ -3453,19 +3453,19 @@
         <v>135631</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117397</v>
+        <v>118664</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154588</v>
+        <v>156418</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3427143742906283</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.296640574307075</v>
+        <v>0.2998433325386712</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3906153152707521</v>
+        <v>0.3952401455346876</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>265</v>
@@ -3474,19 +3474,19 @@
         <v>272266</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244150</v>
+        <v>246716</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298370</v>
+        <v>300583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3339798135386669</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2994903337709331</v>
+        <v>0.3026384827769715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3659998888457398</v>
+        <v>0.3687147748211603</v>
       </c>
     </row>
     <row r="7">
@@ -3578,19 +3578,19 @@
         <v>97375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79970</v>
+        <v>80995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116722</v>
+        <v>116530</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1649044527578654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.135428392061414</v>
+        <v>0.1371641150459645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1976670033438294</v>
+        <v>0.1973424257118052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>98</v>
@@ -3599,19 +3599,19 @@
         <v>95094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79950</v>
+        <v>78836</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>112628</v>
+        <v>113226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1687427158851196</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1418708718615385</v>
+        <v>0.1398925981515099</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1998566457379742</v>
+        <v>0.2009171836405713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -3620,19 +3620,19 @@
         <v>192469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>168470</v>
+        <v>168978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>218173</v>
+        <v>216883</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1667787630447673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1459831034208711</v>
+        <v>0.1464230447739789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.189051851414527</v>
+        <v>0.1879334071756527</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>301513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>275398</v>
+        <v>275710</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>323594</v>
+        <v>326623</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5106104843229458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.466383384853589</v>
+        <v>0.4669124849813223</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5480044008835752</v>
+        <v>0.553132529651704</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>285</v>
@@ -3670,19 +3670,19 @@
         <v>275377</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>253990</v>
+        <v>251165</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>298405</v>
+        <v>298751</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4886514502878809</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4507006901334929</v>
+        <v>0.4456883883432144</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5295142151087791</v>
+        <v>0.5301298094656361</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>578</v>
@@ -3691,19 +3691,19 @@
         <v>576890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>541970</v>
+        <v>545725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>612153</v>
+        <v>612203</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4998873936911177</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4696282472781986</v>
+        <v>0.4728819159769944</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5304435306198834</v>
+        <v>0.5304870908517297</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>191607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170048</v>
+        <v>168972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217046</v>
+        <v>213787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3244850629191889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2879748833320437</v>
+        <v>0.2861532086674979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3675652003177589</v>
+        <v>0.3620460993680437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -3741,19 +3741,19 @@
         <v>193073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170458</v>
+        <v>172344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>215439</v>
+        <v>216373</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3426058338269995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3024754103949099</v>
+        <v>0.3058215661349725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3822936582433918</v>
+        <v>0.3839505257858733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -3762,19 +3762,19 @@
         <v>384681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>351046</v>
+        <v>354700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>414430</v>
+        <v>417344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3333338432641151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3041890682388708</v>
+        <v>0.3073547323252776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3591122860939103</v>
+        <v>0.3616371835698069</v>
       </c>
     </row>
     <row r="11">
@@ -3866,19 +3866,19 @@
         <v>89371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72182</v>
+        <v>71362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109443</v>
+        <v>109008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1335699652929285</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1078792008926847</v>
+        <v>0.1066547683811622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1635683629904586</v>
+        <v>0.1629186748598218</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -3887,19 +3887,19 @@
         <v>82969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67400</v>
+        <v>67341</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102053</v>
+        <v>101058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.125446863639908</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1019069560584338</v>
+        <v>0.1018173693563598</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1543017586033366</v>
+        <v>0.1527975882375678</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>163</v>
@@ -3908,19 +3908,19 @@
         <v>172340</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>148074</v>
+        <v>148185</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>197055</v>
+        <v>196852</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1295319519540294</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112930839942296</v>
+        <v>0.1113770616778586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1481077895045509</v>
+        <v>0.1479549415738858</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>357077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>331593</v>
+        <v>328913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>384834</v>
+        <v>384016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5336702110892663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4955828823108903</v>
+        <v>0.4915776878165452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5751548561539364</v>
+        <v>0.5739310227235159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>344</v>
@@ -3958,19 +3958,19 @@
         <v>335951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>310727</v>
+        <v>312519</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>361666</v>
+        <v>362694</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.507949250692225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.469811286288513</v>
+        <v>0.472522084930594</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.546830457517641</v>
+        <v>0.5483851467372709</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>687</v>
@@ -3979,19 +3979,19 @@
         <v>693028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>657937</v>
+        <v>657184</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>728957</v>
+        <v>731175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5208842599084228</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4945095871422141</v>
+        <v>0.4939442144314298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5478893333037389</v>
+        <v>0.5495559748229447</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>222649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198803</v>
+        <v>198247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247322</v>
+        <v>248421</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3327598236178053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2971216434381344</v>
+        <v>0.296290771771024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3696348165206657</v>
+        <v>0.3712779847495849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -4029,19 +4029,19 @@
         <v>242467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218710</v>
+        <v>216841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>268069</v>
+        <v>265092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3666038856678671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3306840854743661</v>
+        <v>0.3278582935087008</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4053143268792893</v>
+        <v>0.400813266952159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>453</v>
@@ -4050,19 +4050,19 @@
         <v>465115</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>429460</v>
+        <v>426894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>499182</v>
+        <v>500007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3495837881375479</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3227853776253081</v>
+        <v>0.320856520469416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.375188885381466</v>
+        <v>0.3758084499351438</v>
       </c>
     </row>
     <row r="15">
@@ -4154,19 +4154,19 @@
         <v>102871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82124</v>
+        <v>82866</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123144</v>
+        <v>123497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1592309223460152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1271177331227015</v>
+        <v>0.1282658221095248</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1906107678285079</v>
+        <v>0.1911577251491718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -4175,19 +4175,19 @@
         <v>85684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69580</v>
+        <v>69298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103894</v>
+        <v>105325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1320093993698021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1071991196481013</v>
+        <v>0.1067640543372942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1600635012397263</v>
+        <v>0.1622696328994096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>166</v>
@@ -4196,19 +4196,19 @@
         <v>188555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164766</v>
+        <v>162329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>216719</v>
+        <v>214511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1455883321922919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1272198252942363</v>
+        <v>0.1253384034869319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1673341138355136</v>
+        <v>0.1656294872617464</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>336732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>312084</v>
+        <v>309635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>364702</v>
+        <v>362531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5212175984330516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4830665234820144</v>
+        <v>0.4792758928461957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5645126423289969</v>
+        <v>0.5611514517766413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>320</v>
@@ -4246,19 +4246,19 @@
         <v>344288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>314788</v>
+        <v>319021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366806</v>
+        <v>369410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5304270558858942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4849782850170143</v>
+        <v>0.4914998389638363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5651195446163825</v>
+        <v>0.5691317113783174</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>630</v>
@@ -4267,19 +4267,19 @@
         <v>681020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>644120</v>
+        <v>642823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>721025</v>
+        <v>716536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5258330952837265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4973423249839914</v>
+        <v>0.496340555753349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5567227064169954</v>
+        <v>0.5532560358388179</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>206446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>181869</v>
+        <v>184543</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>231537</v>
+        <v>233057</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3195514792209332</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2815096565280841</v>
+        <v>0.2856495207419713</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3583902011331952</v>
+        <v>0.3607431909470378</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>204</v>
@@ -4317,19 +4317,19 @@
         <v>219105</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>197651</v>
+        <v>195115</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246351</v>
+        <v>245884</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3375635447443036</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3045114708442453</v>
+        <v>0.3006039966663475</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3795409297689346</v>
+        <v>0.3788208397175349</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>388</v>
@@ -4338,19 +4338,19 @@
         <v>425550</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>391368</v>
+        <v>392739</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>462464</v>
+        <v>463723</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3285785725239816</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3021854223386661</v>
+        <v>0.3032438384155635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.357080543337554</v>
+        <v>0.3580529169357787</v>
       </c>
     </row>
     <row r="19">
@@ -4442,19 +4442,19 @@
         <v>79491</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64973</v>
+        <v>63285</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98701</v>
+        <v>99452</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1663273658886978</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1359495258207033</v>
+        <v>0.1324175341117331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2065227305198677</v>
+        <v>0.2080933701901042</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -4463,19 +4463,19 @@
         <v>77780</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62322</v>
+        <v>61215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95026</v>
+        <v>96562</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1565472535973622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1254338791718815</v>
+        <v>0.1232066742227265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.191257486018609</v>
+        <v>0.1943493462411386</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -4484,19 +4484,19 @@
         <v>157271</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>135129</v>
+        <v>134219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>181505</v>
+        <v>182704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1613423396966887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.13862653188867</v>
+        <v>0.1376937076906437</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1862038645664978</v>
+        <v>0.187433005381545</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>243154</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>219680</v>
+        <v>218600</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>265229</v>
+        <v>265276</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5087785294046064</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4596613389004429</v>
+        <v>0.4574014674243335</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5549680965982202</v>
+        <v>0.5550663979793117</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>221</v>
@@ -4534,19 +4534,19 @@
         <v>249557</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>226771</v>
+        <v>226533</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>274916</v>
+        <v>272472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5022790362454407</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4564177171539697</v>
+        <v>0.4559400439969098</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5533188786094065</v>
+        <v>0.5484003187267925</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>441</v>
@@ -4555,19 +4555,19 @@
         <v>492711</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>462546</v>
+        <v>460184</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>525291</v>
+        <v>526635</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5054656693199703</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4745192654583962</v>
+        <v>0.4720964727830492</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5388886129132733</v>
+        <v>0.5402679704673521</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>155273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135594</v>
+        <v>133779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176744</v>
+        <v>177197</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3248941047066957</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2837187707225418</v>
+        <v>0.279920207272868</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3698204589630225</v>
+        <v>0.3707686653651693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -4605,19 +4605,19 @@
         <v>169512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>145432</v>
+        <v>149217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>192946</v>
+        <v>193167</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3411737101571971</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2927090730473144</v>
+        <v>0.3003264831922901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3883387226486503</v>
+        <v>0.3887843201382489</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>279</v>
@@ -4626,19 +4626,19 @@
         <v>324785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294726</v>
+        <v>294406</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>356382</v>
+        <v>359453</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3331919909833411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3023552019380746</v>
+        <v>0.3020272986192377</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3656068883762079</v>
+        <v>0.3687574859587391</v>
       </c>
     </row>
     <row r="23">
@@ -4730,19 +4730,19 @@
         <v>54558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42943</v>
+        <v>41995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69290</v>
+        <v>68673</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1631869677496079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1284450750724644</v>
+        <v>0.1256104408174748</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2072494807536271</v>
+        <v>0.2054035406471477</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -4751,19 +4751,19 @@
         <v>56341</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43645</v>
+        <v>43926</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72489</v>
+        <v>70654</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1491449848886012</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1155353266794062</v>
+        <v>0.1162793057903258</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1918896514622552</v>
+        <v>0.187033236712997</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>109</v>
@@ -4772,19 +4772,19 @@
         <v>110900</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>93614</v>
+        <v>91802</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131235</v>
+        <v>130030</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1557377511402325</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1314630933335678</v>
+        <v>0.1289189037986863</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1842946568317462</v>
+        <v>0.1826029574571699</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>186014</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165922</v>
+        <v>168936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203902</v>
+        <v>204932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5563793744430825</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4962814965250251</v>
+        <v>0.5052973587662781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6098832953168735</v>
+        <v>0.6129621451541625</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>196</v>
@@ -4822,19 +4822,19 @@
         <v>206668</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185508</v>
+        <v>187404</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>226616</v>
+        <v>227923</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.547085510262762</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4910701552614283</v>
+        <v>0.4960909046550138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5998896210799092</v>
+        <v>0.6033500508605066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>376</v>
@@ -4843,19 +4843,19 @@
         <v>392682</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>367971</v>
+        <v>365457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>419025</v>
+        <v>420604</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5514490160953612</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5167465564652908</v>
+        <v>0.5132166632587247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5884422033452675</v>
+        <v>0.5906589686707618</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>93757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78165</v>
+        <v>77157</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111224</v>
+        <v>110894</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2804336578073096</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2337962956689828</v>
+        <v>0.2307824029517019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3326768111267242</v>
+        <v>0.3316902005036786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -4893,19 +4893,19 @@
         <v>114753</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97292</v>
+        <v>96400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133301</v>
+        <v>133007</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3037695048486369</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2575486895311421</v>
+        <v>0.2551866781844933</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3528714388106035</v>
+        <v>0.3520914464484171</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>194</v>
@@ -4914,19 +4914,19 @@
         <v>208510</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>185744</v>
+        <v>183533</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>233442</v>
+        <v>233549</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2928132327644063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2608430125925142</v>
+        <v>0.2577378168072934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3278255465726171</v>
+        <v>0.3279763501533364</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>43568</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33290</v>
+        <v>32879</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54568</v>
+        <v>54486</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1695252695214291</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1295338957181476</v>
+        <v>0.1279348691664949</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2123284579345819</v>
+        <v>0.2120079759519801</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>48</v>
@@ -5039,19 +5039,19 @@
         <v>60989</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45912</v>
+        <v>45568</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>79459</v>
+        <v>77454</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1524084768729657</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1147305326500539</v>
+        <v>0.1138727629362831</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1985631021713192</v>
+        <v>0.1935528127926373</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -5060,19 +5060,19 @@
         <v>104557</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>85826</v>
+        <v>85198</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>124847</v>
+        <v>123415</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.159102333216911</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1305995910910204</v>
+        <v>0.129644948245243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1899780165502435</v>
+        <v>0.1877989454148854</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>155444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>143209</v>
+        <v>141994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>170462</v>
+        <v>169162</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6048463596533133</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5572361206201337</v>
+        <v>0.552510069377534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6632816122156177</v>
+        <v>0.6582221656834328</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>176</v>
@@ -5110,19 +5110,19 @@
         <v>230808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209802</v>
+        <v>208622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>255015</v>
+        <v>251922</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5767768213782364</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5242847190386233</v>
+        <v>0.5213352376805016</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6372682550761496</v>
+        <v>0.6295384823254129</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>360</v>
@@ -5131,19 +5131,19 @@
         <v>386253</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>358806</v>
+        <v>357604</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>414271</v>
+        <v>412269</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5877539629907514</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5459897099578215</v>
+        <v>0.5441603439135071</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6303891236013169</v>
+        <v>0.6273428501389088</v>
       </c>
     </row>
     <row r="30">
@@ -5160,19 +5160,19 @@
         <v>57986</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45888</v>
+        <v>46919</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>69329</v>
+        <v>72393</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2256283708252576</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1785523620655033</v>
+        <v>0.1825671530718629</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2697632667973116</v>
+        <v>0.2816883604930572</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>77</v>
@@ -5181,19 +5181,19 @@
         <v>108372</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>88241</v>
+        <v>90154</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129558</v>
+        <v>132227</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2708147017487979</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2205095799693944</v>
+        <v>0.2252892366818969</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3237584586591691</v>
+        <v>0.3304279911611395</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>145</v>
@@ -5202,19 +5202,19 @@
         <v>166358</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>144183</v>
+        <v>144704</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>193844</v>
+        <v>192047</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2531437037923376</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2194005530269308</v>
+        <v>0.2201932811565542</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2949699100292167</v>
+        <v>0.2922345269121051</v>
       </c>
     </row>
     <row r="31">
@@ -5306,19 +5306,19 @@
         <v>533571</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>486</v>
@@ -5327,19 +5327,19 @@
         <v>514794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>973</v>
@@ -5348,19 +5348,19 @@
         <v>1048365</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="33">
@@ -5377,19 +5377,19 @@
         <v>1796426</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1737989</v>
+        <v>1733991</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1855677</v>
+        <v>1852082</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5292400525180573</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5120241060285695</v>
+        <v>0.5108463152860344</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5466957648132231</v>
+        <v>0.5456368302564469</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1752</v>
@@ -5398,19 +5398,19 @@
         <v>1846836</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1791741</v>
+        <v>1785722</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1904778</v>
+        <v>1909830</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5210365309239655</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5054929266296825</v>
+        <v>0.5037947504817148</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5373833892782369</v>
+        <v>0.5388086421735229</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3489</v>
@@ -5419,19 +5419,19 @@
         <v>3643262</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3564078</v>
+        <v>3556077</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3729625</v>
+        <v>3729663</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5250495095039579</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5136379400144804</v>
+        <v>0.5124847930156491</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5374958019189193</v>
+        <v>0.5375012762103101</v>
       </c>
     </row>
     <row r="34">
@@ -5448,19 +5448,19 @@
         <v>1064353</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1010576</v>
+        <v>1011275</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1117210</v>
+        <v>1122178</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3135660488880403</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.297723059700196</v>
+        <v>0.2979289673806821</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3291381278155804</v>
+        <v>0.3306016851538794</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1100</v>
@@ -5469,19 +5469,19 @@
         <v>1182912</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1127427</v>
+        <v>1121299</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1237127</v>
+        <v>1239261</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3337276987669447</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3180741037569381</v>
+        <v>0.3163453277571637</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3490231669312578</v>
+        <v>0.3496250565594657</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2107</v>
@@ -5490,19 +5490,19 @@
         <v>2247265</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2169572</v>
+        <v>2166454</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2326114</v>
+        <v>2327530</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3238650723115429</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3126683080654864</v>
+        <v>0.3122189984256251</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3352284865348037</v>
+        <v>0.3354324656148778</v>
       </c>
     </row>
     <row r="35">
@@ -5837,19 +5837,19 @@
         <v>49283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29903</v>
+        <v>31219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74750</v>
+        <v>75186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1208536187043324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07332913472941632</v>
+        <v>0.07655543080046552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1833035384847896</v>
+        <v>0.1843724585954325</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5858,19 +5858,19 @@
         <v>35981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22278</v>
+        <v>21637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56764</v>
+        <v>56638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09925535010688114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0614548652723765</v>
+        <v>0.05968565299264555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1565862101809698</v>
+        <v>0.1562381372748788</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -5879,19 +5879,19 @@
         <v>85265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58567</v>
+        <v>62301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116385</v>
+        <v>118675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1106892933751659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07603070547853974</v>
+        <v>0.08087893463619997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1510888608383135</v>
+        <v>0.1540622639394477</v>
       </c>
     </row>
     <row r="5">
@@ -5908,19 +5908,19 @@
         <v>255591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223839</v>
+        <v>225407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286876</v>
+        <v>286600</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6267677147541189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5489042373870771</v>
+        <v>0.5527484248187962</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7034833137921851</v>
+        <v>0.7028071476909701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -5929,19 +5929,19 @@
         <v>237318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210615</v>
+        <v>211549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263027</v>
+        <v>261132</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6546475379500025</v>
+        <v>0.6546475379500024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5809878157693062</v>
+        <v>0.583563232500292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7255677516780606</v>
+        <v>0.7203405995031193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -5950,19 +5950,19 @@
         <v>492909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>453406</v>
+        <v>447763</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>533142</v>
+        <v>532290</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6398881920647884</v>
+        <v>0.6398881920647882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5886058731514464</v>
+        <v>0.5812805040284434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6921179282423433</v>
+        <v>0.691011707739868</v>
       </c>
     </row>
     <row r="6">
@@ -5979,19 +5979,19 @@
         <v>102918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75347</v>
+        <v>78436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133616</v>
+        <v>133325</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2523786665415489</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1847676689108755</v>
+        <v>0.1923414828182196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.327656457748709</v>
+        <v>0.3269438239760983</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -6000,19 +6000,19 @@
         <v>89213</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68118</v>
+        <v>68293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>114389</v>
+        <v>112387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2460971119431164</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1879053585625441</v>
+        <v>0.1883883183104874</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.315545900164869</v>
+        <v>0.3100216078792026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -6021,19 +6021,19 @@
         <v>192131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>157161</v>
+        <v>155050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>231651</v>
+        <v>233996</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2494225145600459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2040238563233453</v>
+        <v>0.2012837175960144</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3007261152600488</v>
+        <v>0.3037711635115239</v>
       </c>
     </row>
     <row r="7">
@@ -6125,19 +6125,19 @@
         <v>68352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50135</v>
+        <v>49748</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>92792</v>
+        <v>90335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.143328980180321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1051283378898722</v>
+        <v>0.1043168924650523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1945777140377464</v>
+        <v>0.189425093698905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -6146,19 +6146,19 @@
         <v>65597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51094</v>
+        <v>52406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82996</v>
+        <v>83281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1307418232549984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.101834873094511</v>
+        <v>0.1044492557512176</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1654186502338689</v>
+        <v>0.1659875796307105</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>98</v>
@@ -6167,19 +6167,19 @@
         <v>133950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110056</v>
+        <v>109887</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>161774</v>
+        <v>160633</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1368756392195948</v>
+        <v>0.1368756392195949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1124601285400206</v>
+        <v>0.1122876408962111</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1653080508996519</v>
+        <v>0.1641414045487025</v>
       </c>
     </row>
     <row r="9">
@@ -6196,19 +6196,19 @@
         <v>305926</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>279867</v>
+        <v>276651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>334144</v>
+        <v>335898</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6415013333420526</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5868594111241334</v>
+        <v>0.5801140778074182</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7006738539959446</v>
+        <v>0.7043507678564337</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>296</v>
@@ -6217,19 +6217,19 @@
         <v>316353</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>294061</v>
+        <v>292603</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>339414</v>
+        <v>338010</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6305196201608524</v>
+        <v>0.6305196201608523</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5860904971767535</v>
+        <v>0.5831851619043242</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6764830496282117</v>
+        <v>0.6736852193375685</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>497</v>
@@ -6238,19 +6238,19 @@
         <v>622278</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>586782</v>
+        <v>583343</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>654438</v>
+        <v>656681</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.635871091349231</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5995992549256821</v>
+        <v>0.5960850681562351</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6687337910647555</v>
+        <v>0.6710255294890901</v>
       </c>
     </row>
     <row r="10">
@@ -6267,19 +6267,19 @@
         <v>102612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79520</v>
+        <v>80102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126658</v>
+        <v>129263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2151696864776263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1667461570513577</v>
+        <v>0.1679679144465837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2655913851525933</v>
+        <v>0.2710538898921496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -6288,19 +6288,19 @@
         <v>119783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99864</v>
+        <v>100767</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142067</v>
+        <v>142063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2387385565841492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1990379019552534</v>
+        <v>0.2008373516455746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2831533812745943</v>
+        <v>0.2831452965960828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -6309,19 +6309,19 @@
         <v>222395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193038</v>
+        <v>190551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252913</v>
+        <v>257002</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2272532694311741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1972550511350206</v>
+        <v>0.1947135667912741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2584378745459359</v>
+        <v>0.2626160753396998</v>
       </c>
     </row>
     <row r="11">
@@ -6413,19 +6413,19 @@
         <v>86053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68548</v>
+        <v>68810</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>105146</v>
+        <v>104800</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1388512187126455</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1106063085862329</v>
+        <v>0.1110286158454032</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1696586926571369</v>
+        <v>0.1691003447448018</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -6434,19 +6434,19 @@
         <v>71990</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60343</v>
+        <v>59638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>87400</v>
+        <v>86335</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1155185730211586</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09682951239883442</v>
+        <v>0.09569761377644852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1402450537381307</v>
+        <v>0.1385361421672681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>171</v>
@@ -6455,19 +6455,19 @@
         <v>158044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134696</v>
+        <v>135116</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>180891</v>
+        <v>179557</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1271525930006131</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1083683895356546</v>
+        <v>0.1087066333473383</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1455340279874231</v>
+        <v>0.1444607478925355</v>
       </c>
     </row>
     <row r="13">
@@ -6484,19 +6484,19 @@
         <v>390214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>361905</v>
+        <v>365336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>415404</v>
+        <v>413929</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6296310871350337</v>
+        <v>0.6296310871350338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5839518126170586</v>
+        <v>0.5894886700777467</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6702749889110922</v>
+        <v>0.667896122830922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>534</v>
@@ -6505,19 +6505,19 @@
         <v>388301</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>368942</v>
+        <v>368646</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>408655</v>
+        <v>408432</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6230823888723598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5920190129652736</v>
+        <v>0.5915437940350265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6557436207969822</v>
+        <v>0.6553865880749568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>880</v>
@@ -6526,19 +6526,19 @@
         <v>778515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>745755</v>
+        <v>746140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>810677</v>
+        <v>811599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6263476716626077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5999907678385802</v>
+        <v>0.6003005272717242</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6522234540522304</v>
+        <v>0.652965015485642</v>
       </c>
     </row>
     <row r="14">
@@ -6555,19 +6555,19 @@
         <v>143483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123366</v>
+        <v>122397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166967</v>
+        <v>166954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2315176941523207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1990568496294229</v>
+        <v>0.1974939141290001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2694090410677227</v>
+        <v>0.2693882974968108</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -6576,19 +6576,19 @@
         <v>162902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143577</v>
+        <v>143373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181409</v>
+        <v>180003</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2613990381064817</v>
+        <v>0.2613990381064818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2303893453600382</v>
+        <v>0.2300625996636494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2910954125487301</v>
+        <v>0.28883974809492</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>342</v>
@@ -6597,19 +6597,19 @@
         <v>306385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>280006</v>
+        <v>277154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334159</v>
+        <v>335770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.246499735336779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2252763941622201</v>
+        <v>0.2229819897948544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2688444717695361</v>
+        <v>0.2701409361670351</v>
       </c>
     </row>
     <row r="15">
@@ -6701,19 +6701,19 @@
         <v>86273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70399</v>
+        <v>69548</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105286</v>
+        <v>105317</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1231388732457541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1004810437775257</v>
+        <v>0.09926626533494565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.150275565075632</v>
+        <v>0.1503197395176322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -6722,19 +6722,19 @@
         <v>102098</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88358</v>
+        <v>88066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117990</v>
+        <v>118898</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1385534095695713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1199066160004855</v>
+        <v>0.1195109402418646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1601191711814327</v>
+        <v>0.1613516939395862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -6743,19 +6743,19 @@
         <v>188371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>168077</v>
+        <v>164945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214500</v>
+        <v>211639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1310406011532958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1169228705078951</v>
+        <v>0.1147442627593162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1492169393237866</v>
+        <v>0.1472269326924721</v>
       </c>
     </row>
     <row r="17">
@@ -6772,19 +6772,19 @@
         <v>426157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396694</v>
+        <v>397778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>451802</v>
+        <v>448976</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6082594853339041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5662065396601994</v>
+        <v>0.5677542271994812</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6448626889653419</v>
+        <v>0.6408288213110974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>689</v>
@@ -6793,19 +6793,19 @@
         <v>444581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>424996</v>
+        <v>423598</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>465521</v>
+        <v>466640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6033238961463868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5767457882234244</v>
+        <v>0.5748491641290147</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6317413211192067</v>
+        <v>0.6332590205358731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1095</v>
@@ -6814,19 +6814,19 @@
         <v>870738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>835873</v>
+        <v>837343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>904596</v>
+        <v>903406</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6057294265631508</v>
+        <v>0.605729426563151</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5814753223345623</v>
+        <v>0.5824980865074855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6292822257844524</v>
+        <v>0.6284544870012919</v>
       </c>
     </row>
     <row r="18">
@@ -6843,19 +6843,19 @@
         <v>188187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166114</v>
+        <v>166475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>215034</v>
+        <v>215233</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2686016414203419</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2370972102861002</v>
+        <v>0.2376116358494633</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3069204117684724</v>
+        <v>0.3072048407359741</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>296</v>
@@ -6864,19 +6864,19 @@
         <v>190207</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172980</v>
+        <v>171471</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>209134</v>
+        <v>209460</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2581226942840419</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2347452397547554</v>
+        <v>0.2326963857060127</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2838076698475243</v>
+        <v>0.2842500216429363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>475</v>
@@ -6885,19 +6885,19 @@
         <v>378394</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>347911</v>
+        <v>348084</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>409122</v>
+        <v>408392</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2632299722835532</v>
+        <v>0.2632299722835533</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.242024667225368</v>
+        <v>0.2421448047220784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2846055753787671</v>
+        <v>0.2840982862145123</v>
       </c>
     </row>
     <row r="19">
@@ -6989,19 +6989,19 @@
         <v>65132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50585</v>
+        <v>51631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80617</v>
+        <v>81145</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1068891860308757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08301604339383753</v>
+        <v>0.08473103742045901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1323008968833901</v>
+        <v>0.1331666898974294</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>115</v>
@@ -7010,19 +7010,19 @@
         <v>74843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62673</v>
+        <v>62728</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89177</v>
+        <v>87931</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1229239252511714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1029351591146129</v>
+        <v>0.1030264114326033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.146466759549039</v>
+        <v>0.1444202764797636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>182</v>
@@ -7031,19 +7031,19 @@
         <v>139975</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119709</v>
+        <v>121482</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>159980</v>
+        <v>160492</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1149033239294269</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09826722990896335</v>
+        <v>0.09972267228814884</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1313249123760387</v>
+        <v>0.1317451163167615</v>
       </c>
     </row>
     <row r="21">
@@ -7060,19 +7060,19 @@
         <v>402108</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>380444</v>
+        <v>380892</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>425094</v>
+        <v>425775</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6599009790468218</v>
+        <v>0.6599009790468217</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6243472539398377</v>
+        <v>0.6250832599719119</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6976236527646813</v>
+        <v>0.6987404783716509</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>677</v>
@@ -7081,19 +7081,19 @@
         <v>406677</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>387232</v>
+        <v>389125</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>422763</v>
+        <v>424471</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6679373441139583</v>
+        <v>0.6679373441139586</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6360005066813866</v>
+        <v>0.6391087443903632</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6943582139426052</v>
+        <v>0.6971626712068819</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1116</v>
@@ -7102,19 +7102,19 @@
         <v>808786</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>779246</v>
+        <v>778952</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>837867</v>
+        <v>836576</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6639175418961641</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6396690825378857</v>
+        <v>0.6394279262786252</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.687789678718158</v>
+        <v>0.6867299453669633</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7131,19 @@
         <v>142105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123669</v>
+        <v>121657</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163298</v>
+        <v>161997</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2332098349223026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2029542078601126</v>
+        <v>0.1996521962349657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2679897360912194</v>
+        <v>0.2658539169144097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>210</v>
@@ -7152,19 +7152,19 @@
         <v>127335</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112961</v>
+        <v>112659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144229</v>
+        <v>143418</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2091387306348701</v>
+        <v>0.2091387306348702</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1855299930047314</v>
+        <v>0.1850340657057222</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2368856596657253</v>
+        <v>0.2355540529239147</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>367</v>
@@ -7173,19 +7173,19 @@
         <v>269441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>245062</v>
+        <v>246474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>295918</v>
+        <v>295566</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2211791341744089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2011669212805864</v>
+        <v>0.202326342085105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2429141082671069</v>
+        <v>0.242624922303538</v>
       </c>
     </row>
     <row r="23">
@@ -7277,19 +7277,19 @@
         <v>42077</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31335</v>
+        <v>31267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55242</v>
+        <v>54162</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1033631005582435</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07697410935721978</v>
+        <v>0.07680798955089414</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1357031498096073</v>
+        <v>0.1330502449845259</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>82</v>
@@ -7298,19 +7298,19 @@
         <v>48891</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39978</v>
+        <v>39987</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58621</v>
+        <v>59348</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1113258704817551</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09103168553869437</v>
+        <v>0.09105213665724436</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1334820325353865</v>
+        <v>0.1351383486662175</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>130</v>
@@ -7319,19 +7319,19 @@
         <v>90968</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>75935</v>
+        <v>75700</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>105802</v>
+        <v>106310</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1074954446443981</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08973104949824116</v>
+        <v>0.0894542521213136</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1250254476208389</v>
+        <v>0.1256250315728751</v>
       </c>
     </row>
     <row r="25">
@@ -7348,19 +7348,19 @@
         <v>260548</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>242777</v>
+        <v>244074</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>275322</v>
+        <v>277545</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6400416263544831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.596386103598308</v>
+        <v>0.5995724887097823</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6763330805480652</v>
+        <v>0.6817954150370632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>558</v>
@@ -7369,19 +7369,19 @@
         <v>294612</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>280345</v>
+        <v>280645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>309007</v>
+        <v>308022</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6708435331594316</v>
+        <v>0.6708435331594317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6383576939172023</v>
+        <v>0.6390398353549305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7036223997870058</v>
+        <v>0.7013798050833585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>932</v>
@@ -7390,19 +7390,19 @@
         <v>555160</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>530841</v>
+        <v>533434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>576392</v>
+        <v>577357</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6560265259120959</v>
+        <v>0.656026525912096</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6272896068650994</v>
+        <v>0.6303534554133287</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6811162810466485</v>
+        <v>0.6822570672383269</v>
       </c>
     </row>
     <row r="26">
@@ -7419,19 +7419,19 @@
         <v>104455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91070</v>
+        <v>89461</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120885</v>
+        <v>120251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2565952730872734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2237160811413971</v>
+        <v>0.2197637456066403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2969571943608716</v>
+        <v>0.295398757006073</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>187</v>
@@ -7440,19 +7440,19 @@
         <v>95664</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>84118</v>
+        <v>84486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107793</v>
+        <v>107980</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2178305963588133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1915410602327198</v>
+        <v>0.1923775675956922</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2454488151290873</v>
+        <v>0.245874315568968</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>335</v>
@@ -7461,19 +7461,19 @@
         <v>200119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>180665</v>
+        <v>179477</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>220982</v>
+        <v>219802</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2364780294435059</v>
+        <v>0.236478029443506</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2134903715713045</v>
+        <v>0.212085855714736</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2611317880250325</v>
+        <v>0.2597372830541786</v>
       </c>
     </row>
     <row r="27">
@@ -7565,19 +7565,19 @@
         <v>37106</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27875</v>
+        <v>27158</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48126</v>
+        <v>48670</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1196198601185662</v>
+        <v>0.1196198601185663</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0898620463020695</v>
+        <v>0.08755051929688254</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1551452916318808</v>
+        <v>0.1568995808543727</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>88</v>
@@ -7586,19 +7586,19 @@
         <v>56728</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45569</v>
+        <v>45266</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68541</v>
+        <v>69020</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1220992904736147</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0980808521761186</v>
+        <v>0.0974285843229966</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1475235961670212</v>
+        <v>0.1485557375831574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>130</v>
@@ -7607,19 +7607,19 @@
         <v>93834</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>79770</v>
+        <v>80183</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112030</v>
+        <v>112800</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1211066369428198</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1029547930424925</v>
+        <v>0.1034881760231111</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.144591347630553</v>
+        <v>0.1455851300962075</v>
       </c>
     </row>
     <row r="29">
@@ -7636,19 +7636,19 @@
         <v>211888</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197798</v>
+        <v>197519</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>225487</v>
+        <v>225510</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6830733864386366</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6376492554420166</v>
+        <v>0.636750739740472</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7269120787171308</v>
+        <v>0.7269859945240219</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>655</v>
@@ -7657,19 +7657,19 @@
         <v>335359</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>321085</v>
+        <v>321446</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>351176</v>
+        <v>351837</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7218080695236617</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6910855229962447</v>
+        <v>0.6918627532645729</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7558534506445943</v>
+        <v>0.7572760840817678</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>978</v>
@@ -7678,19 +7678,19 @@
         <v>547247</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>525384</v>
+        <v>525084</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>566545</v>
+        <v>566633</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7063004268708714</v>
+        <v>0.7063004268708712</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6780838699688743</v>
+        <v>0.6776969146011851</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7312076986000068</v>
+        <v>0.7313211245809728</v>
       </c>
     </row>
     <row r="30">
@@ -7707,19 +7707,19 @@
         <v>61204</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50520</v>
+        <v>50513</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73098</v>
+        <v>73865</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1973067534427971</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1628651555952161</v>
+        <v>0.1628419252161967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2356506695526645</v>
+        <v>0.2381205287264816</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>138</v>
@@ -7728,19 +7728,19 @@
         <v>72522</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61829</v>
+        <v>60182</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84040</v>
+        <v>83790</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1560926400027236</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1330783983901552</v>
+        <v>0.1295330300771742</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1808831227332019</v>
+        <v>0.1803455859925714</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>231</v>
@@ -7749,19 +7749,19 @@
         <v>133726</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>117883</v>
+        <v>118729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>151022</v>
+        <v>150200</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1725929361863089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1521444842430998</v>
+        <v>0.1532365732264968</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1949152219354053</v>
+        <v>0.193854888916927</v>
       </c>
     </row>
     <row r="31">
@@ -7853,19 +7853,19 @@
         <v>434277</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>392638</v>
+        <v>391560</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>478454</v>
+        <v>479658</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1229663485643554</v>
+        <v>0.1229663485643555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1111760838501588</v>
+        <v>0.1108708009300326</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.13547492836414</v>
+        <v>0.1358160185205469</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>612</v>
@@ -7874,19 +7874,19 @@
         <v>456129</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>417841</v>
+        <v>421945</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>492617</v>
+        <v>492731</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1220590328280833</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1118132848352474</v>
+        <v>0.1129115190966339</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1318231770660227</v>
+        <v>0.1318537263790713</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>981</v>
@@ -7895,19 +7895,19 @@
         <v>890406</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>831077</v>
+        <v>836770</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>949035</v>
+        <v>952940</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1224998786541941</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1143374943375074</v>
+        <v>0.1151206990279705</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1305657983150973</v>
+        <v>0.1311030444894251</v>
       </c>
     </row>
     <row r="33">
@@ -7924,19 +7924,19 @@
         <v>2252433</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2185619</v>
+        <v>2182269</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2318807</v>
+        <v>2312942</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6377802795096269</v>
+        <v>0.637780279509627</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6188618112408607</v>
+        <v>0.6179132312479461</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6565740354612595</v>
+        <v>0.6549133636397803</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3549</v>
@@ -7945,19 +7945,19 @@
         <v>2423199</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2367880</v>
+        <v>2367512</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2472263</v>
+        <v>2474469</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.648442232991334</v>
+        <v>0.6484422329913339</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6336390800971557</v>
+        <v>0.6335406659773731</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6615716484161632</v>
+        <v>0.6621619691189966</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5751</v>
@@ -7966,19 +7966,19 @@
         <v>4675633</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4593496</v>
+        <v>4582970</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4759320</v>
+        <v>4753235</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6432618117744489</v>
+        <v>0.6432618117744487</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6319615808443274</v>
+        <v>0.6305134935422196</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6547752966439141</v>
+        <v>0.6539381483351369</v>
       </c>
     </row>
     <row r="34">
@@ -7995,19 +7995,19 @@
         <v>844965</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>784081</v>
+        <v>789174</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>903175</v>
+        <v>902362</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2392533719260175</v>
+        <v>0.2392533719260176</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2220137386534144</v>
+        <v>0.2234559391238113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2557356276624496</v>
+        <v>0.2555054014308126</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1206</v>
@@ -8016,19 +8016,19 @@
         <v>857626</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>814417</v>
+        <v>812348</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>907682</v>
+        <v>906749</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2294987341805829</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.217935939777414</v>
+        <v>0.2173823319059277</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2428936675694281</v>
+        <v>0.2426437741523114</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2010</v>
@@ -8037,19 +8037,19 @@
         <v>1702592</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1630303</v>
+        <v>1637321</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1778467</v>
+        <v>1779020</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2342383095713572</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2242930285859297</v>
+        <v>0.2252585714403129</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2446769698463345</v>
+        <v>0.2447530887087991</v>
       </c>
     </row>
     <row r="35">
